--- a/db/AiCity-78-Food.xlsx
+++ b/db/AiCity-78-Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3693E640-3BC6-5F46-AD45-159E127A6B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB26508-47AC-1444-9F3D-9EE280749001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="4620" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16780" yWindow="4600" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>title</t>
   </si>
@@ -380,6 +380,20 @@
   </si>
   <si>
     <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>傅培梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-922-傅培梅.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.touchttv.com/touchttv/play.aspx?id=1042</t>
   </si>
 </sst>
 </file>
@@ -738,13 +752,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,6 +923,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/db/AiCity-78-Food.xlsx
+++ b/db/AiCity-78-Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB26508-47AC-1444-9F3D-9EE280749001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1CD924-61DF-E645-9F74-B1F14D94DA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="4600" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="4600" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -755,10 +755,10 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/AiCity-78-Food.xlsx
+++ b/db/AiCity-78-Food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1CD924-61DF-E645-9F74-B1F14D94DA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7905B6-7CBE-3743-8BC9-A8237EC09464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="4600" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>title</t>
   </si>
@@ -394,6 +394,21 @@
   </si>
   <si>
     <t>https://www.touchttv.com/touchttv/play.aspx?id=1042</t>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿見</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-922-阿見.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC1SaDcKftNgCW-I34K462yQ/featured</t>
   </si>
 </sst>
 </file>
@@ -752,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,6 +955,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/db/AiCity-78-Food.xlsx
+++ b/db/AiCity-78-Food.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7905B6-7CBE-3743-8BC9-A8237EC09464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BAD9E4-11B8-9948-B329-0B44D5F9BB75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="4600" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30020" yWindow="15200" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,28 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>食譜匯總</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>楊桃美食網</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>fig/AiCity-922-</t>
     </r>
     <r>
@@ -79,7 +101,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>大廚網</t>
+      <t>楊桃美食網</t>
     </r>
     <r>
       <rPr>
@@ -88,29 +110,18 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>.jpeg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>食譜匯總</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>楊桃美食網</t>
+      <t>.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>愛料理</t>
     </r>
   </si>
   <si>
@@ -124,7 +135,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>楊桃美食網</t>
+      <t>愛料理</t>
     </r>
     <r>
       <rPr>
@@ -144,64 +155,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>愛料理</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fig/AiCity-922-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>愛料理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>心食譜</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fig/AiCity-922-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>心食譜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.png</t>
     </r>
   </si>
   <si>
@@ -409,6 +363,34 @@
   </si>
   <si>
     <t>https://www.youtube.com/channel/UC1SaDcKftNgCW-I34K462yQ/featured</t>
+  </si>
+  <si>
+    <t>fig/AiCity-922-心食譜.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-922-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>大廚網</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -773,7 +755,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -804,172 +786,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-78-Food.xlsx
+++ b/db/AiCity-78-Food.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BAD9E4-11B8-9948-B329-0B44D5F9BB75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A569DA-C82F-AC46-8F69-E64F5638B09E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30020" yWindow="15200" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11580" yWindow="10520" windowWidth="38580" windowHeight="18280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>title</t>
   </si>
@@ -391,6 +391,21 @@
       <t>.png</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-922-美食台.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美食台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/nhzdkwTvKJ8b_iM83Rn-mg?</t>
   </si>
 </sst>
 </file>
@@ -749,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,6 +969,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
